--- a/Data/EC/NIT-9005364159.xlsx
+++ b/Data/EC/NIT-9005364159.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A1AD63F-3C12-4FDB-B1D5-8E5F4F97A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6748214E-795A-43CF-8C63-F3649C3A9383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{225E5784-8E06-4014-9D85-666CFD051E8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEEA694F-8D8E-489A-B0E9-E66E18DF13EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,73 +71,73 @@
     <t>JAIME ANDRES GARCIA POSADA</t>
   </si>
   <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1017126454</t>
+  </si>
+  <si>
+    <t>ANGELA MARIA GARCIA POSADA</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1017126454</t>
-  </si>
-  <si>
-    <t>ANGELA MARIA GARCIA POSADA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -236,7 +236,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +251,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +451,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +495,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93C4979-DB94-58CC-FDB8-8DB83AA12BA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A557A5-2A53-0E6F-C856-464148A3DC13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1692F18-98C9-4D90-A1BB-25B9544715A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B86F6-E0B0-4E88-83E8-89BB7C71482A}">
   <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1094,13 +1094,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1140,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1186,13 +1186,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1232,13 +1232,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1278,13 +1278,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1307,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1324,13 +1324,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1353,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1370,13 +1370,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1416,13 +1416,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1462,13 +1462,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1508,13 +1508,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1537,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1554,13 +1554,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1577,13 +1577,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1600,13 +1600,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1623,13 +1623,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1646,13 +1646,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1669,13 +1669,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1692,13 +1692,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1715,13 +1715,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1738,13 +1738,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1761,13 +1761,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1784,13 +1784,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1807,13 +1807,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -1830,13 +1830,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -1853,13 +1853,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -1876,13 +1876,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -1899,13 +1899,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -1922,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -1945,13 +1945,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -1968,13 +1968,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -1991,13 +1991,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2014,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D57" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="F57" s="24">
         <v>33125</v>
